--- a/HS23_DC-Script_PSIA416_Excel-Vorlage_230114.xlsx
+++ b/HS23_DC-Script_PSIA416_Excel-Vorlage_230114.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hsluzern-my.sharepoint.com/personal/dominic_hohenfeld_stud_hslu_ch/Documents/3. Semester/DC Scripting/Project-SIA-416 neu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.amstad/Documents/Python Grundlagen/Project-SIA-416/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3589D4A1-48D4-4A3B-8A74-9FF6F9F15F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405BBA8C-0961-5945-A406-DF605A2D8DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{CBFEDF2E-64E9-446E-94A7-D21275BF08BD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{CBFEDF2E-64E9-446E-94A7-D21275BF08BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -73,9 +73,6 @@
     <t>Projektstatus</t>
   </si>
   <si>
-    <t>Datum</t>
-  </si>
-  <si>
     <t>Ersteller</t>
   </si>
   <si>
@@ -133,10 +130,6 @@
   <si>
     <t>Aussen-
 Verkehrsfläche AV</t>
-  </si>
-  <si>
-    <t>Aussen-
-Funktionsfläche AF</t>
   </si>
   <si>
     <t>Haupt-
@@ -185,7 +178,15 @@
 NV</t>
   </si>
   <si>
-    <t>Grobkostenschätzung nach</t>
+    <t>Grobkostenschätzung</t>
+  </si>
+  <si>
+    <t>nach</t>
+  </si>
+  <si>
+    <t>Aussen-
+Funktionsfläche 
+AF</t>
   </si>
 </sst>
 </file>
@@ -193,7 +194,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ &quot;CHF&quot;"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -259,6 +260,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -477,27 +479,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -516,34 +502,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -552,86 +514,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,20 +546,135 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -759,7 +767,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -777,7 +785,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-364.31</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -826,7 +834,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>47.00</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -875,7 +883,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>39.70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -924,7 +932,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>65.00</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -973,7 +981,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>212.61</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1059,7 +1067,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1096,7 +1104,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1772,9 +1780,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1812,7 +1820,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1918,7 +1926,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2060,7 +2068,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2070,32 +2078,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3305D52F-5990-48CF-B074-B90189145B53}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.41796875" customWidth="1"/>
-    <col min="3" max="3" width="14.20703125" customWidth="1"/>
-    <col min="4" max="4" width="14.734375" customWidth="1"/>
-    <col min="5" max="6" width="17.9453125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.6" customHeight="1">
+    <row r="1" spans="1:6" ht="39.5" customHeight="1">
       <c r="A1" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2107,9 +2115,9 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="15.9" customHeight="1">
+    <row r="3" spans="1:6" ht="16" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -2117,11 +2125,12 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.3">
+      <c r="F3" s="83" t="str">
+        <f ca="1">TEXT(TODAY(), "TT.MM.JJJJ")</f>
+        <v>14.01.2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -2130,7 +2139,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1">
@@ -2141,9 +2150,9 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="15.3">
+    <row r="6" spans="1:6" ht="16">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2151,7 +2160,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="8.4" customHeight="1">
+    <row r="7" spans="1:6" ht="8.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2159,104 +2168,103 @@
       <c r="E7" s="2"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="15.3" customHeight="1">
-      <c r="A8" s="68" t="s">
+    <row r="8" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A9" s="68">
+        <v>0</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:6" ht="16">
+      <c r="A10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.3" customHeight="1">
-      <c r="A9" s="34">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:6" ht="16">
+      <c r="A11" s="49">
         <v>0</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.3">
-      <c r="A10" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="75"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.3">
-      <c r="A11" s="79">
-        <f>SUM(A13,C13,D13)</f>
-        <v>364.31199999999995</v>
-      </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="40">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52">
         <f>(A9-A11)</f>
-        <v>-364.31199999999995</v>
-      </c>
-      <c r="F11" s="41"/>
-    </row>
-    <row r="12" spans="1:6" ht="41.4">
-      <c r="A12" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="43"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="53"/>
+    </row>
+    <row r="12" spans="1:6" ht="48">
+      <c r="A12" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="48">
+      <c r="A13" s="60">
         <f>SUM(A15,B15)</f>
-        <v>277.61199999999997</v>
-      </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="48">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="D13" s="48">
-        <v>47</v>
-      </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-    </row>
-    <row r="14" spans="1:6" ht="43.8" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.3" customHeight="1">
-      <c r="A15" s="15">
-        <v>212.61199999999999</v>
-      </c>
-      <c r="B15" s="15">
-        <v>65</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="60">
+        <v>0</v>
+      </c>
+      <c r="D13" s="60">
+        <v>0</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+    </row>
+    <row r="14" spans="1:6" ht="43.75" customHeight="1">
+      <c r="A14" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A15" s="64">
+        <v>0</v>
+      </c>
+      <c r="B15" s="64">
+        <v>0</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1">
       <c r="A16" s="3"/>
@@ -2266,204 +2274,222 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="15.3" customHeight="1">
-      <c r="A17" s="68" t="s">
+    <row r="17" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A17" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.25" customHeight="1">
+      <c r="A18" s="43">
+        <v>0</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+    </row>
+    <row r="19" spans="1:6" ht="16">
+      <c r="A19" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.3" customHeight="1">
-      <c r="A18" s="34">
-        <v>0</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.3">
-      <c r="A19" s="71" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="75"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.3">
-      <c r="A20" s="76">
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="1:6" ht="16">
+      <c r="A20" s="49">
         <f>SUM(A22,C22,D22)</f>
         <v>0</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="46">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="68">
         <v>0</v>
       </c>
-      <c r="F20" s="47"/>
-    </row>
-    <row r="21" spans="1:6" ht="41.4">
-      <c r="A21" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="F20" s="70"/>
+    </row>
+    <row r="21" spans="1:6" ht="48">
+      <c r="A21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="66">
+      <c r="A22" s="71">
         <v>0</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="15">
+      <c r="B22" s="72"/>
+      <c r="C22" s="64">
         <v>0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="64">
         <v>0</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="64">
         <v>0</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="73">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="22.8" customHeight="1">
+    <row r="23" spans="1:6" ht="22.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:6" ht="16">
+      <c r="A24" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" ht="16">
+      <c r="A25" s="23">
+        <v>0</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="1:6" ht="16">
+      <c r="A26" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.6">
-      <c r="A25" s="37">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="41"/>
+    </row>
+    <row r="27" spans="1:6" ht="16">
+      <c r="A27" s="23">
         <v>0</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.6">
-      <c r="A26" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="32"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.6">
-      <c r="A27" s="37">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="77">
         <v>0</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="56">
+      <c r="F27" s="78"/>
+    </row>
+    <row r="28" spans="1:6" ht="48">
+      <c r="A28" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.5" customHeight="1">
+      <c r="A29" s="74">
         <v>0</v>
       </c>
-      <c r="F27" s="57"/>
-    </row>
-    <row r="28" spans="1:6" ht="43.2">
-      <c r="A28" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A29" s="17">
+      <c r="B29" s="74">
         <v>0</v>
       </c>
-      <c r="B29" s="17">
+      <c r="C29" s="75">
         <v>0</v>
       </c>
-      <c r="C29" s="64">
-        <v>0</v>
-      </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
-    </row>
-    <row r="30" spans="1:6" ht="22.8" customHeight="1">
+      <c r="D29" s="76"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="82"/>
+    </row>
+    <row r="30" spans="1:6" ht="22.75" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6">
-      <c r="A31" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="31" spans="1:6" ht="16">
+      <c r="A31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16">
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="27">
+    <row r="33" spans="1:6">
+      <c r="A33" s="48">
         <v>0</v>
       </c>
-      <c r="B33" s="12"/>
-    </row>
-    <row r="34" spans="1:2" ht="22.8" customHeight="1"/>
-    <row r="35" spans="1:2">
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+    </row>
+    <row r="34" spans="1:6" ht="22.75" customHeight="1"/>
+    <row r="35" spans="1:6">
       <c r="A35" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="E11:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A21:B21"/>
@@ -2480,17 +2506,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="E11:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HS23_DC-Script_PSIA416_Excel-Vorlage_230114.xlsx
+++ b/HS23_DC-Script_PSIA416_Excel-Vorlage_230114.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.amstad/Documents/Python Grundlagen/Project-SIA-416/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405BBA8C-0961-5945-A406-DF605A2D8DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E13F08-31D7-B240-8AA5-A7D4A1C6A8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{CBFEDF2E-64E9-446E-94A7-D21275BF08BD}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -118,9 +118,6 @@
     <t>+/- 20% genau</t>
   </si>
   <si>
-    <t>Auszug der Flächen und Volumen des Projektmodelles nach SIA 416</t>
-  </si>
-  <si>
     <t>Nutzfläche
 NF</t>
   </si>
@@ -178,15 +175,18 @@
 NV</t>
   </si>
   <si>
-    <t>Grobkostenschätzung</t>
-  </si>
-  <si>
     <t>nach</t>
   </si>
   <si>
     <t>Aussen-
 Funktionsfläche 
 AF</t>
+  </si>
+  <si>
+    <t>Grobkostenschätzung BKP 2</t>
+  </si>
+  <si>
+    <t>Auszug der Flächen und Volumen des Projektmodells nach SIA 416</t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#,##0\ &quot;CHF&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;CHF&quot;"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -502,29 +502,149 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,135 +666,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2078,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3305D52F-5990-48CF-B074-B90189145B53}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2095,13 +2095,13 @@
       <c r="A1" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>0</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="3" spans="1:6" ht="16" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
@@ -2125,9 +2125,9 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="83" t="str">
+      <c r="F3" s="28" t="str">
         <f ca="1">TEXT(TODAY(), "TT.MM.JJJJ")</f>
-        <v>14.01.2024</v>
+        <v>15.01.2024</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16">
@@ -2152,7 +2152,7 @@
     </row>
     <row r="6" spans="1:6" ht="16">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2169,102 +2169,102 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.25" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:6" ht="15.25" customHeight="1">
-      <c r="A9" s="68">
+      <c r="A9" s="36">
         <v>0</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:6" ht="16">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="78"/>
     </row>
     <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="49">
+      <c r="A11" s="79">
         <v>0</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="45">
         <f>(A9-A11)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6" ht="48">
-      <c r="A12" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56" t="s">
+      <c r="A12" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="83"/>
+      <c r="C12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="60">
+      <c r="A13" s="51">
         <f>SUM(A15,B15)</f>
         <v>0</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="60">
+      <c r="B13" s="52"/>
+      <c r="C13" s="51">
         <v>0</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="51">
         <v>0</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="59"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
     </row>
     <row r="14" spans="1:6" ht="43.75" customHeight="1">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:6" ht="15.25" customHeight="1">
-      <c r="A15" s="64">
+      <c r="A15" s="24">
         <v>0</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="24">
         <v>0</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1">
       <c r="A16" s="3"/>
@@ -2275,60 +2275,60 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="15.25" customHeight="1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="73"/>
     </row>
     <row r="18" spans="1:6" ht="15.25" customHeight="1">
-      <c r="A18" s="43">
+      <c r="A18" s="39">
         <v>0</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:6" ht="16">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="78"/>
     </row>
     <row r="20" spans="1:6" ht="16">
-      <c r="A20" s="49">
+      <c r="A20" s="79">
         <f>SUM(A22,C22,D22)</f>
         <v>0</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="68">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="36">
         <v>0</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="38"/>
     </row>
     <row r="21" spans="1:6" ht="48">
-      <c r="A21" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="26"/>
+      <c r="A21" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="58"/>
       <c r="C21" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>10</v>
@@ -2338,20 +2338,20 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="71">
+      <c r="A22" s="69">
         <v>0</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="64">
+      <c r="B22" s="70"/>
+      <c r="C22" s="24">
         <v>0</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="24">
         <v>0</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="24">
         <v>0</v>
       </c>
-      <c r="F22" s="73">
+      <c r="F22" s="26">
         <v>0</v>
       </c>
     </row>
@@ -2363,76 +2363,76 @@
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="16">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:6" ht="16">
-      <c r="A25" s="23">
+      <c r="A25" s="42">
         <v>0</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="46"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
     </row>
     <row r="26" spans="1:6" ht="16">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="40" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="41"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:6" ht="16">
-      <c r="A27" s="23">
+      <c r="A27" s="42">
         <v>0</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="77">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="59">
         <v>0</v>
       </c>
-      <c r="F27" s="78"/>
+      <c r="F27" s="60"/>
     </row>
     <row r="28" spans="1:6" ht="48">
       <c r="A28" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
+      <c r="C28" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
     </row>
     <row r="29" spans="1:6" ht="15.5" customHeight="1">
-      <c r="A29" s="74">
+      <c r="A29" s="27">
         <v>0</v>
       </c>
-      <c r="B29" s="74">
+      <c r="B29" s="27">
         <v>0</v>
       </c>
-      <c r="C29" s="75">
+      <c r="C29" s="67">
         <v>0</v>
       </c>
-      <c r="D29" s="76"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
     </row>
     <row r="30" spans="1:6" ht="22.75" customHeight="1">
       <c r="A30" s="11"/>
@@ -2441,12 +2441,12 @@
     </row>
     <row r="31" spans="1:6" ht="16">
       <c r="A31" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="47" t="s">
-        <v>33</v>
+      <c r="D31" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>13</v>
@@ -2461,14 +2461,14 @@
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="48">
+      <c r="A33" s="29">
         <v>0</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6" ht="22.75" customHeight="1"/>
     <row r="35" spans="1:6">
@@ -2478,18 +2478,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="E11:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A21:B21"/>
@@ -2506,6 +2494,18 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="E11:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/HS23_DC-Script_PSIA416_Excel-Vorlage_230114.xlsx
+++ b/HS23_DC-Script_PSIA416_Excel-Vorlage_230114.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.amstad/Documents/Python Grundlagen/Project-SIA-416/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hsluzern-my.sharepoint.com/personal/dominic_hohenfeld_stud_hslu_ch/Documents/3. Semester/DC Scripting/SIA416/Project-SIA-416/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E13F08-31D7-B240-8AA5-A7D4A1C6A8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{15E13F08-31D7-B240-8AA5-A7D4A1C6A8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9753E211-3E23-47EA-A575-635DF1326409}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{CBFEDF2E-64E9-446E-94A7-D21275BF08BD}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{CBFEDF2E-64E9-446E-94A7-D21275BF08BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Manuel Amstad
 Dominic Hohenfeld</t>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>Auszug der Flächen und Volumen des Projektmodells nach SIA 416</t>
+  </si>
+  <si>
+    <t>HNF</t>
+  </si>
+  <si>
+    <t>NNF</t>
+  </si>
+  <si>
+    <t>VF</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>KF</t>
   </si>
 </sst>
 </file>
@@ -454,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -526,43 +541,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,39 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -675,6 +624,73 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -683,10 +699,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFB899C"/>
+      <color rgb="FFFF85AE"/>
       <color rgb="FFEDEFF3"/>
       <color rgb="FFE3E7ED"/>
       <color rgb="FFFFE1EB"/>
-      <color rgb="FFFF85AE"/>
       <color rgb="FFFFEBF2"/>
       <color rgb="FFFF6699"/>
     </mruColors>
@@ -723,7 +740,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -736,8 +753,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Flächennutzung</a:t>
+              <a:rPr lang="de-CH"/>
+              <a:t>Nutzungsmix</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -755,7 +772,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -767,7 +784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -779,254 +796,270 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$E$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FB899C"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A284-412F-AEC8-5D0651BE03EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A284-412F-AEC8-5D0651BE03EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A284-412F-AEC8-5D0651BE03EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A284-412F-AEC8-5D0651BE03EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A284-412F-AEC8-5D0651BE03EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-564C-45E4-BD14-11425B33E2EF}"/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
-          </c:dPt>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$I$18:$I$22</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>HNF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NNF</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Tabelle1!$J$18:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C140-4C33-AB75-6D803DDA38E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-564C-45E4-BD14-11425B33E2EF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C140-4C33-AB75-6D803DDA38E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-564C-45E4-BD14-11425B33E2EF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C140-4C33-AB75-6D803DDA38E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-564C-45E4-BD14-11425B33E2EF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C140-4C33-AB75-6D803DDA38E2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-564C-45E4-BD14-11425B33E2EF}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C140-4C33-AB75-6D803DDA38E2}"/>
+              <c16:uniqueId val="{00000000-A284-412F-AEC8-5D0651BE03EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1041,7 +1074,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1067,7 +1100,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1104,7 +1137,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1156,7 +1189,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1167,7 +1200,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1179,17 +1212,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1220,12 +1242,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1257,7 +1276,7 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1265,16 +1284,24 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1282,7 +1309,10 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
         <a:solidFill>
           <a:schemeClr val="lt1"/>
         </a:solidFill>
@@ -1308,10 +1338,8 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1319,14 +1347,17 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1591,7 +1622,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1607,7 +1638,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1678,23 +1709,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>6880</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>193843</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>926042</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>788738</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>363422</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="7" name="Diagramm 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86231D7-D106-438C-2DFE-82F4494BEAC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB989FE-B95E-10EA-B5EE-AEC9A3827548}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,9 +1811,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1820,7 +1851,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1926,7 +1957,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2068,7 +2099,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2076,30 +2107,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3305D52F-5990-48CF-B074-B90189145B53}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.47265625" customWidth="1"/>
+    <col min="3" max="3" width="14.15625" customWidth="1"/>
+    <col min="4" max="4" width="14.68359375" customWidth="1"/>
     <col min="5" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.5" customHeight="1">
+    <row r="1" spans="1:6" ht="39.549999999999997" customHeight="1">
       <c r="A1" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="12" t="s">
         <v>25</v>
       </c>
@@ -2127,10 +2158,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="28" t="str">
         <f ca="1">TEXT(TODAY(), "TT.MM.JJJJ")</f>
-        <v>15.01.2024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16">
+        <v>17.01.2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -2150,7 +2181,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="16">
+    <row r="6" spans="1:6" ht="15.3">
       <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
@@ -2169,78 +2200,79 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.25" customHeight="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" ht="15.25" customHeight="1">
-      <c r="A9" s="36">
-        <v>0</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-    </row>
-    <row r="10" spans="1:6" ht="16">
-      <c r="A10" s="74" t="s">
+      <c r="A9" s="67">
+        <v>160</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.3">
+      <c r="A10" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="78"/>
-    </row>
-    <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="79">
-        <v>0</v>
-      </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="45">
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.3">
+      <c r="A11" s="55">
+        <f>A15+B15+C13+D13</f>
+        <v>145</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="74">
         <f>(A9-A11)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="46"/>
-    </row>
-    <row r="12" spans="1:6" ht="48">
-      <c r="A12" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="75"/>
+    </row>
+    <row r="12" spans="1:6" ht="41.4">
+      <c r="A12" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="51">
+      <c r="A13" s="80">
         <f>SUM(A15,B15)</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="51">
-        <v>0</v>
-      </c>
-      <c r="D13" s="51">
-        <v>0</v>
-      </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
+        <v>104</v>
+      </c>
+      <c r="B13" s="81"/>
+      <c r="C13" s="80">
+        <v>23</v>
+      </c>
+      <c r="D13" s="80">
+        <v>18</v>
+      </c>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
     </row>
     <row r="14" spans="1:6" ht="43.75" customHeight="1">
       <c r="A14" s="25" t="s">
@@ -2249,22 +2281,22 @@
       <c r="B14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
     </row>
     <row r="15" spans="1:6" ht="15.25" customHeight="1">
       <c r="A15" s="24">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B15" s="24">
-        <v>0</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="79"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1">
       <c r="A16" s="3"/>
@@ -2274,56 +2306,77 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="15.25" customHeight="1">
-      <c r="A17" s="71" t="s">
+    <row r="17" spans="1:10" ht="15.25" customHeight="1">
+      <c r="A17" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.25" customHeight="1">
-      <c r="A18" s="39">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.25" customHeight="1">
+      <c r="A18" s="70">
         <v>0</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-    </row>
-    <row r="19" spans="1:6" ht="16">
-      <c r="A19" s="74" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="84">
+        <f>A15</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.3">
+      <c r="A19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="78"/>
-    </row>
-    <row r="20" spans="1:6" ht="16">
-      <c r="A20" s="79">
+      <c r="F19" s="54"/>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="84">
+        <f>B15</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.3">
+      <c r="A20" s="55">
         <f>SUM(A22,C22,D22)</f>
         <v>0</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="36">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="67">
         <v>0</v>
       </c>
-      <c r="F20" s="38"/>
-    </row>
-    <row r="21" spans="1:6" ht="48">
-      <c r="A21" s="57" t="s">
+      <c r="F20" s="69"/>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="84">
+        <f>C13</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="41.4">
+      <c r="A21" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="58"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="17" t="s">
         <v>20</v>
       </c>
@@ -2336,12 +2389,19 @@
       <c r="F21" s="16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="69">
+      <c r="I21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="84">
+        <f>D13</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="45">
         <v>0</v>
       </c>
-      <c r="B22" s="70"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="24">
         <v>0</v>
       </c>
@@ -2354,92 +2414,99 @@
       <c r="F22" s="26">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="22.75" customHeight="1">
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="84">
+        <f>E11</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="22.75" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="16">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:10" ht="15.6">
+      <c r="A24" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-    </row>
-    <row r="25" spans="1:6" ht="16">
-      <c r="A25" s="42">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6">
+      <c r="A25" s="31">
+        <v>858</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="73"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.6">
+      <c r="A26" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="65"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6">
+      <c r="A27" s="31">
         <v>0</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-    </row>
-    <row r="26" spans="1:6" ht="16">
-      <c r="A26" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="34"/>
-    </row>
-    <row r="27" spans="1:6" ht="16">
-      <c r="A27" s="42">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="35">
         <v>0</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="59">
-        <v>0</v>
-      </c>
-      <c r="F27" s="60"/>
-    </row>
-    <row r="28" spans="1:6" ht="48">
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:10" ht="43.2">
       <c r="A28" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.5" customHeight="1">
+      <c r="D28" s="42"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.55" customHeight="1">
       <c r="A29" s="27">
         <v>0</v>
       </c>
       <c r="B29" s="27">
         <v>0</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="43">
         <v>0</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
-    </row>
-    <row r="30" spans="1:6" ht="22.75" customHeight="1">
+      <c r="D29" s="44"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:10" ht="22.75" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
     </row>
-    <row r="31" spans="1:6" ht="16">
+    <row r="31" spans="1:10" ht="15.6">
       <c r="A31" s="13" t="s">
         <v>33</v>
       </c>
@@ -2455,20 +2522,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16">
+    <row r="32" spans="1:10" ht="15.6">
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="29">
+      <c r="A33" s="60">
         <v>0</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="22.75" customHeight="1"/>
     <row r="35" spans="1:6">
@@ -2478,6 +2545,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="E11:F15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A21:B21"/>
@@ -2494,18 +2573,6 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="E11:F15"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
